--- a/party/一条分组.xlsx
+++ b/party/一条分组.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\muscle\MapleStory\party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248FCEEA-8A58-46C4-822A-76BA9D5FB3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C47676-8B4B-457F-BF98-7C89A930A8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="3670" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="4010" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,129 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>奶</t>
   </si>
   <si>
-    <t>义气丶奶</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>千万恶霸</t>
-  </si>
-  <si>
-    <t>战斗猫</t>
-  </si>
-  <si>
     <t>火</t>
   </si>
   <si>
-    <t>森贝尔嫩</t>
-  </si>
-  <si>
-    <t>声微饭否</t>
-  </si>
-  <si>
-    <t>莉莎长高高</t>
-  </si>
-  <si>
-    <t>霍家拳</t>
-  </si>
-  <si>
     <t>圣骑</t>
   </si>
   <si>
-    <t>章章浩</t>
-  </si>
-  <si>
-    <t>日落沙滩前</t>
-  </si>
-  <si>
-    <t>一天也</t>
-  </si>
-  <si>
     <t>拳</t>
   </si>
   <si>
-    <t>阿树</t>
-  </si>
-  <si>
     <t>弩</t>
   </si>
   <si>
-    <t>点恋线</t>
-  </si>
-  <si>
     <t>船</t>
   </si>
   <si>
-    <t>朗姆</t>
-  </si>
-  <si>
-    <t>穷到捡破烂</t>
-  </si>
-  <si>
     <t>饺子</t>
   </si>
   <si>
-    <t>浪客阿文</t>
-  </si>
-  <si>
-    <t>厉飞羽</t>
-  </si>
-  <si>
     <t>刀</t>
   </si>
   <si>
-    <t>滴滴叭叭</t>
-  </si>
-  <si>
-    <t>Cris</t>
-  </si>
-  <si>
-    <t>菜叶子</t>
-  </si>
-  <si>
-    <t>暗影灬</t>
-  </si>
-  <si>
     <t>弓</t>
   </si>
   <si>
-    <t>枇杷树</t>
-  </si>
-  <si>
-    <t>Nemo尼莫</t>
-  </si>
-  <si>
-    <t>鱼儿爱看雪</t>
-  </si>
-  <si>
-    <t>怪力</t>
-  </si>
-  <si>
-    <t>Hoyt</t>
-  </si>
-  <si>
-    <t>与小女</t>
-  </si>
-  <si>
     <t>单挂</t>
-  </si>
-  <si>
-    <t>4. 柠檬-105勇士 求母本</t>
-  </si>
-  <si>
-    <t>6. 给糖就约-140龙骑 单挂</t>
-  </si>
-  <si>
-    <t>29. 倩倩子-120奶  单挂，需要一个杯子</t>
-  </si>
-  <si>
-    <t>33. 冰封de记忆 冰雷 单挂，需求扎头杯子</t>
   </si>
 </sst>
 </file>
@@ -525,7 +432,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,81 +450,51 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -626,14 +503,10 @@
     </row>
     <row r="6" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -641,14 +514,10 @@
     </row>
     <row r="7" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -656,62 +525,34 @@
     </row>
     <row r="8" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>

--- a/party/一条分组.xlsx
+++ b/party/一条分组.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\muscle\MapleStory\party\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\tree\MapleStory\party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C47676-8B4B-457F-BF98-7C89A930A8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF70DB5E-63B5-41A9-8369-829CDBB56856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="4010" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,19 +56,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -429,134 +436,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" customWidth="1"/>
+    <col min="1" max="15" width="20.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/party/一条分组.xlsx
+++ b/party/一条分组.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\tree\MapleStory\party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF70DB5E-63B5-41A9-8369-829CDBB56856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54C55A0-F2C8-4117-ABF4-CFC9823DE5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -637,6 +637,176 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
+    <row r="11" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
